--- a/DATA_goal/Junction_Flooding_402.xlsx
+++ b/DATA_goal/Junction_Flooding_402.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>4.31</v>
+        <v>43.1</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.27</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.06</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.89</v>
+        <v>28.89</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.3</v>
+        <v>12.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.66</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.93</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.68</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.4</v>
+        <v>124</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.36</v>
+        <v>23.59</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.4</v>
+        <v>14.02</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.12</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.18</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.75</v>
+        <v>27.51</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.91</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.7</v>
+        <v>147</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.81</v>
+        <v>28.08</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.46</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.27</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.47</v>
+        <v>34.73</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_402.xlsx
+++ b/DATA_goal/Junction_Flooding_402.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,36 +445,36 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.84027777778</v>
+        <v>45083.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>7.794</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>5.793</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.946</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>16.826</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>13.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>4.852</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>16.497</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>9.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>4.646</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>5.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>6.967</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>7.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.79</v>
+        <v>2.899</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.48</v>
+        <v>6.391</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.59</v>
+        <v>8.101000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>5.893</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.984</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.1</v>
+        <v>89.866</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.95</v>
+        <v>17.483</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>5.899</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>10.767</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>6.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.916</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>10.451</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>5.134</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>4.948</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>6.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>7.806</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>1.833</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>14.334</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>3.055</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>7.294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.84722222222</v>
+        <v>45083.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.77</v>
+        <v>6.007</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.97</v>
+        <v>4.466</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.005</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.6</v>
+        <v>13.341</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.78</v>
+        <v>10.347</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.63</v>
+        <v>4.086</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.69</v>
+        <v>18.208</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.14</v>
+        <v>7.347</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.704</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.78</v>
+        <v>4.181</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.74</v>
+        <v>5.408</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.78</v>
+        <v>5.936</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.27</v>
+        <v>1.953</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.17</v>
+        <v>4.888</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.12</v>
+        <v>6.475</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.22</v>
+        <v>4.508</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.403</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.529</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.49</v>
+        <v>67.065</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.76</v>
+        <v>13.71</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.54</v>
+        <v>4.511</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.75</v>
+        <v>8.723000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1</v>
+        <v>4.897</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.664</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.99</v>
+        <v>10.186</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.916</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.05</v>
+        <v>3.735</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.03</v>
+        <v>4.549</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.08</v>
+        <v>5.848</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.915</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.24</v>
+        <v>16.902</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.82</v>
+        <v>2.439</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.99</v>
+        <v>5.569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.85416666666</v>
+        <v>45083.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.27</v>
+        <v>4.148</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>3.08</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.06</v>
+        <v>9.292</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.66</v>
+        <v>7.161</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.33</v>
+        <v>2.829</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.89</v>
+        <v>14.149</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.98</v>
+        <v>5.073</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.91</v>
+        <v>2.624</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.4</v>
+        <v>2.846</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>3.756</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.48</v>
+        <v>4.13</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.71</v>
+        <v>1.337</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.66</v>
+        <v>3.384</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.93</v>
+        <v>4.489</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.68</v>
+        <v>3.148</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.241</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.355</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124</v>
+        <v>44.178</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.59</v>
+        <v>9.539</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>3.123</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.53</v>
+        <v>6.077</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.49</v>
+        <v>3.413</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.454</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.02</v>
+        <v>7.564</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.63</v>
+        <v>2.696</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.34</v>
+        <v>2.596</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.38</v>
+        <v>3.133</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.63</v>
+        <v>4.029</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.618</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.12</v>
+        <v>13.166</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.72</v>
+        <v>1.714</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.77</v>
+        <v>3.841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.86111111111</v>
+        <v>45083.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.14</v>
+        <v>22.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.18</v>
+        <v>17.19</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.35</v>
+        <v>1.19</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.51</v>
+        <v>50.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.91</v>
+        <v>41.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.92</v>
+        <v>17.71</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.83</v>
+        <v>65.25</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.41</v>
+        <v>27.79</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.02</v>
+        <v>12.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.86</v>
+        <v>18.2</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.55</v>
+        <v>20.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.17</v>
+        <v>21.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.22</v>
+        <v>5.98</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.16</v>
+        <v>18.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.23</v>
+        <v>25.51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>15.22</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.85</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147</v>
+        <v>267.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.08</v>
+        <v>50.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.58</v>
+        <v>16.66</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.46</v>
+        <v>33.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.11</v>
+        <v>17.97</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.33</v>
+        <v>2.37</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.66</v>
+        <v>33.21</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.96</v>
+        <v>14.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.37</v>
+        <v>13.04</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.27</v>
+        <v>21.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.73</v>
+        <v>59.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.48</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.55</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.51</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.64</v>
+        <v>20.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_402.xlsx
+++ b/DATA_goal/Junction_Flooding_402.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45083.50694444445</v>
+        <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.794</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.793</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.946</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>16.826</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.11</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.852</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>16.497</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>9.57</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.646</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.28</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.967</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.742</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.899</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.391</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.101000000000001</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.893</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.984</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>89.866</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>17.483</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.899</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.767</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.309</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.916</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.451</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.134</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.948</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.236</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.806</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.833</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>14.334</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.055</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.294</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45083.51388888889</v>
+        <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.007</v>
+        <v>1.766</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.466</v>
+        <v>1.971</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.005</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.341</v>
+        <v>1.596</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.347</v>
+        <v>3.783</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.086</v>
+        <v>0.625</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18.208</v>
+        <v>5.689</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.347</v>
+        <v>1.142</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.704</v>
+        <v>0.694</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.181</v>
+        <v>1.78</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.408</v>
+        <v>1.74</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.936</v>
+        <v>1.778</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.953</v>
+        <v>0.267</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.888</v>
+        <v>1.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.475</v>
+        <v>1.124</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.508</v>
+        <v>0.221</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.403</v>
+        <v>0.6</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.529</v>
+        <v>0.271</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>67.065</v>
+        <v>9.491</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.71</v>
+        <v>2.765</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.511</v>
+        <v>1.539</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.723000000000001</v>
+        <v>2.755</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.897</v>
+        <v>1.004</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.664</v>
+        <v>0.161</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.186</v>
+        <v>1.992</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.916</v>
+        <v>0.3</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.735</v>
+        <v>1.054</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.549</v>
+        <v>1.031</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.848</v>
+        <v>2.085</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.915</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.902</v>
+        <v>4.238</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.439</v>
+        <v>0.819</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.569</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45083.52083333334</v>
+        <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.148</v>
+        <v>11.269</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.08</v>
+        <v>8.879</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.286</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.292</v>
+        <v>23.064</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.161</v>
+        <v>20.659</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.829</v>
+        <v>8.332000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.149</v>
+        <v>28.89</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.073</v>
+        <v>12.981</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.624</v>
+        <v>5.911</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.846</v>
+        <v>9.398</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.756</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.13</v>
+        <v>10.476</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.337</v>
+        <v>2.715</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.384</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.489</v>
+        <v>11.933</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.148</v>
+        <v>6.677</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.241</v>
+        <v>0.502</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.355</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>44.178</v>
+        <v>124.001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.539</v>
+        <v>23.589</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.123</v>
+        <v>8.282</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.077</v>
+        <v>16.527</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.413</v>
+        <v>8.494</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.454</v>
+        <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.564</v>
+        <v>14.018</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.696</v>
+        <v>6.631</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.596</v>
+        <v>6.337</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.133</v>
+        <v>7.377</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.029</v>
+        <v>10.633</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.618</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.166</v>
+        <v>25.123</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.714</v>
+        <v>4.723</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.841</v>
+        <v>9.765000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45083.52777777778</v>
+        <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.92</v>
+        <v>13.136</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.19</v>
+        <v>10.178</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.35</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>50.1</v>
+        <v>27.507</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.01</v>
+        <v>23.915</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.71</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.25</v>
+        <v>38.828</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.79</v>
+        <v>15.411</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.76</v>
+        <v>7.018</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.2</v>
+        <v>10.859</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.12</v>
+        <v>11.549</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.41</v>
+        <v>12.173</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.98</v>
+        <v>3.224</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.05</v>
+        <v>10.156</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.51</v>
+        <v>14.225</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.22</v>
+        <v>8.042</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.422</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.521</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>267.36</v>
+        <v>146.998</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.36</v>
+        <v>28.076</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.66</v>
+        <v>9.582000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.82</v>
+        <v>19.456</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.97</v>
+        <v>10.107</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.37</v>
+        <v>1.335</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>33.21</v>
+        <v>18.655</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.66</v>
+        <v>7.959</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.04</v>
+        <v>7.371</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.4</v>
+        <v>8.637</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.2</v>
+        <v>12.266</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.27</v>
+        <v>34.732</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>5.48</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.77</v>
+        <v>11.553</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_402.xlsx
+++ b/DATA_goal/Junction_Flooding_402.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.84027777778</v>
+        <v>45083.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.928</v>
+        <v>7.794</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.344</v>
+        <v>5.793</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.946</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.978</v>
+        <v>16.826</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.253</v>
+        <v>13.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.511</v>
+        <v>4.852</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.567</v>
+        <v>16.497</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.041</v>
+        <v>9.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.748</v>
+        <v>4.646</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>5.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.048</v>
+        <v>6.967</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.182</v>
+        <v>7.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.791</v>
+        <v>2.899</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.479</v>
+        <v>6.391</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.593</v>
+        <v>8.101000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.503</v>
+        <v>5.893</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.042</v>
+        <v>0.984</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.417</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.098</v>
+        <v>89.866</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.946</v>
+        <v>17.483</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>5.899</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.645</v>
+        <v>10.767</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.748</v>
+        <v>6.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.484</v>
+        <v>0.916</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.765</v>
+        <v>10.451</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.536</v>
+        <v>5.134</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.068</v>
+        <v>4.948</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>6.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.612</v>
+        <v>7.806</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>1.833</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.035</v>
+        <v>14.334</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.082</v>
+        <v>3.055</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>7.294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.84722222222</v>
+        <v>45083.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.766</v>
+        <v>6.007</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.971</v>
+        <v>4.466</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.005</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.596</v>
+        <v>13.341</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.783</v>
+        <v>10.347</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.625</v>
+        <v>4.086</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.689</v>
+        <v>18.208</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.142</v>
+        <v>7.347</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.694</v>
+        <v>3.704</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.78</v>
+        <v>4.181</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.74</v>
+        <v>5.408</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.778</v>
+        <v>5.936</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.267</v>
+        <v>1.953</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.17</v>
+        <v>4.888</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.124</v>
+        <v>6.475</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.221</v>
+        <v>4.508</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.403</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.271</v>
+        <v>0.529</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.491</v>
+        <v>67.065</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.765</v>
+        <v>13.71</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.539</v>
+        <v>4.511</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.755</v>
+        <v>8.723000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.004</v>
+        <v>4.897</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.161</v>
+        <v>0.664</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.992</v>
+        <v>10.186</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.916</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.054</v>
+        <v>3.735</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.031</v>
+        <v>4.549</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.085</v>
+        <v>5.848</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.915</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.238</v>
+        <v>16.902</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.819</v>
+        <v>2.439</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.994</v>
+        <v>5.569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.85416666666</v>
+        <v>45083.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.269</v>
+        <v>4.148</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.879</v>
+        <v>3.08</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.286</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.064</v>
+        <v>9.292</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.659</v>
+        <v>7.161</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.332000000000001</v>
+        <v>2.829</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.89</v>
+        <v>14.149</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.981</v>
+        <v>5.073</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.911</v>
+        <v>2.624</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.398</v>
+        <v>2.846</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>3.756</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.476</v>
+        <v>4.13</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.715</v>
+        <v>1.337</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.664999999999999</v>
+        <v>3.384</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.933</v>
+        <v>4.489</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.677</v>
+        <v>3.148</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.502</v>
+        <v>0.241</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.355</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124.001</v>
+        <v>44.178</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.589</v>
+        <v>9.539</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.282</v>
+        <v>3.123</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.527</v>
+        <v>6.077</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.494</v>
+        <v>3.413</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.454</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.018</v>
+        <v>7.564</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.631</v>
+        <v>2.696</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.337</v>
+        <v>2.596</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.377</v>
+        <v>3.133</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.633</v>
+        <v>4.029</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.618</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.123</v>
+        <v>13.166</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.723</v>
+        <v>1.714</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.765000000000001</v>
+        <v>3.841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.86111111111</v>
+        <v>45083.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.136</v>
+        <v>22.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.178</v>
+        <v>17.19</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.35</v>
+        <v>1.19</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.507</v>
+        <v>50.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.915</v>
+        <v>41.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.923999999999999</v>
+        <v>17.71</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.828</v>
+        <v>65.25</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.411</v>
+        <v>27.79</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.018</v>
+        <v>12.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.859</v>
+        <v>18.2</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.549</v>
+        <v>20.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.173</v>
+        <v>21.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.224</v>
+        <v>5.98</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.156</v>
+        <v>18.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.225</v>
+        <v>25.51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.042</v>
+        <v>15.22</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.422</v>
+        <v>0.33</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.521</v>
+        <v>0.85</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>146.998</v>
+        <v>267.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.076</v>
+        <v>50.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.582000000000001</v>
+        <v>16.66</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.456</v>
+        <v>33.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.107</v>
+        <v>17.97</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.335</v>
+        <v>2.37</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.655</v>
+        <v>33.21</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.959</v>
+        <v>14.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.371</v>
+        <v>13.04</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.637</v>
+        <v>15.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.266</v>
+        <v>21.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.732</v>
+        <v>59.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.48</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.553</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.51</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.64</v>
+        <v>20.77</v>
       </c>
     </row>
   </sheetData>
